--- a/data/VGPs_NAM/25.xlsx
+++ b/data/VGPs_NAM/25.xlsx
@@ -725,6 +725,12 @@
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="B7">
+        <v>17.9</v>
+      </c>
+      <c r="C7">
+        <v>260.8</v>
+      </c>
       <c r="D7" s="7">
         <v>3.0</v>
       </c>
@@ -764,6 +770,12 @@
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="B8">
+        <v>17.9</v>
+      </c>
+      <c r="C8">
+        <v>260.8</v>
+      </c>
       <c r="D8" s="7">
         <v>3.0</v>
       </c>
@@ -802,6 +814,12 @@
       <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="B9">
+        <v>17.9</v>
+      </c>
+      <c r="C9">
+        <v>260.8</v>
+      </c>
       <c r="D9" s="7">
         <v>3.0</v>
       </c>
@@ -840,6 +858,12 @@
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="B10">
+        <v>17.9</v>
+      </c>
+      <c r="C10">
+        <v>260.8</v>
+      </c>
       <c r="D10" s="7">
         <v>3.0</v>
       </c>
@@ -878,6 +902,12 @@
       <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="B11">
+        <v>17.9</v>
+      </c>
+      <c r="C11">
+        <v>260.8</v>
+      </c>
       <c r="D11" s="7">
         <v>4.0</v>
       </c>
@@ -916,6 +946,12 @@
       <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="B12">
+        <v>17.9</v>
+      </c>
+      <c r="C12">
+        <v>260.8</v>
+      </c>
       <c r="D12" s="7">
         <v>3.0</v>
       </c>
@@ -954,6 +990,12 @@
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="B13">
+        <v>17.9</v>
+      </c>
+      <c r="C13">
+        <v>260.8</v>
+      </c>
       <c r="D13" s="7">
         <v>4.0</v>
       </c>
@@ -992,6 +1034,12 @@
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="B14">
+        <v>17.9</v>
+      </c>
+      <c r="C14">
+        <v>260.8</v>
+      </c>
       <c r="D14" s="7">
         <v>3.0</v>
       </c>
@@ -1030,6 +1078,12 @@
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="B15">
+        <v>17.9</v>
+      </c>
+      <c r="C15">
+        <v>260.8</v>
+      </c>
       <c r="D15" s="7">
         <v>3.0</v>
       </c>
@@ -1068,6 +1122,12 @@
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="B16">
+        <v>17.9</v>
+      </c>
+      <c r="C16">
+        <v>260.8</v>
+      </c>
       <c r="D16" s="7">
         <v>3.0</v>
       </c>
@@ -1106,6 +1166,12 @@
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="B17">
+        <v>17.9</v>
+      </c>
+      <c r="C17">
+        <v>260.8</v>
+      </c>
       <c r="D17" s="7">
         <v>3.0</v>
       </c>
@@ -1144,6 +1210,12 @@
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="B18">
+        <v>17.9</v>
+      </c>
+      <c r="C18">
+        <v>260.8</v>
+      </c>
       <c r="D18" s="7">
         <v>5.0</v>
       </c>
@@ -1182,7 +1254,12 @@
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="B19">
+        <v>17.9</v>
+      </c>
+      <c r="C19">
+        <v>260.8</v>
+      </c>
       <c r="D19" s="7">
         <v>4.0</v>
       </c>
@@ -1221,7 +1298,12 @@
       <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="B20">
+        <v>17.9</v>
+      </c>
+      <c r="C20">
+        <v>260.8</v>
+      </c>
       <c r="D20" s="7">
         <v>4.0</v>
       </c>
@@ -1266,7 +1348,12 @@
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="B21">
+        <v>17.9</v>
+      </c>
+      <c r="C21">
+        <v>260.8</v>
+      </c>
       <c r="D21" s="7">
         <v>4.0</v>
       </c>
@@ -1305,7 +1392,12 @@
       <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="B22">
+        <v>17.9</v>
+      </c>
+      <c r="C22">
+        <v>260.8</v>
+      </c>
       <c r="D22" s="7">
         <v>7.0</v>
       </c>
@@ -1344,7 +1436,12 @@
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="B23">
+        <v>17.9</v>
+      </c>
+      <c r="C23">
+        <v>260.8</v>
+      </c>
       <c r="D23" s="7">
         <v>5.0</v>
       </c>
@@ -1383,7 +1480,12 @@
       <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="B24">
+        <v>17.9</v>
+      </c>
+      <c r="C24">
+        <v>260.8</v>
+      </c>
       <c r="D24" s="7">
         <v>7.0</v>
       </c>

--- a/data/VGPs_NAM/25.xlsx
+++ b/data/VGPs_NAM/25.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhrmG53bD2r5MNGvCfVpR2hQpSQbA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miA9IpEGq++GdRUyplJghEnZHeBYg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>Study level data</t>
   </si>
@@ -83,6 +83,9 @@
     <t>age</t>
   </si>
   <si>
+    <t>2_sigma</t>
+  </si>
+  <si>
     <t>min_age</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>kept_by_auth</t>
   </si>
   <si>
     <t>ref</t>
@@ -225,6 +231,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -233,7 +244,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF231F20"/>
       <name val="Calibri"/>
@@ -248,14 +258,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -271,34 +281,43 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -515,1019 +534,1059 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="30" width="9.38"/>
+    <col customWidth="1" min="1" max="32" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="X2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7">
         <v>17.9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>260.8</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>9.0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <v>70.4</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="9">
         <v>6.2</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <v>-80.6</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <v>22.1</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="9">
         <v>33.0</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="R3" s="9">
         <v>35.0</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="7">
+      <c r="T3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="9">
         <v>6.0</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="2"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="P4" s="2"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="X6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7">
         <v>17.9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>260.8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>3.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <v>8.1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="11">
         <v>54.7</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11">
         <v>29.0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="11">
         <v>23.3</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="9">
         <v>33.0</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="9">
         <v>35.0</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="2"/>
+      <c r="T7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7">
         <v>17.9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>260.8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>3.0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>358.0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="11">
         <v>64.8</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11">
         <v>51.9</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="9">
         <v>17.3</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="9">
         <v>33.0</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="9">
         <v>35.0</v>
       </c>
-      <c r="S8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>26</v>
+      <c r="T8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7">
         <v>17.9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>260.8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>3.0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>348.1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="11">
         <v>59.5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="11">
         <v>12.2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="9">
         <v>17.0</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="9">
         <v>33.0</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="9">
         <v>35.0</v>
       </c>
-      <c r="S9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>26</v>
+      <c r="T9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7">
         <v>17.9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>260.8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>3.0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>325.0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>72.2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>398.1</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="9">
         <v>6.2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="9">
         <v>33.0</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="R10" s="9">
         <v>35.0</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>26</v>
+      <c r="T10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7">
         <v>17.9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>260.8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>4.0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="11">
         <v>346.6</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="11">
         <v>60.1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="11">
         <v>21.9</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="9">
         <v>20.1</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="9">
         <v>33.0</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="R11" s="9">
         <v>35.0</v>
       </c>
-      <c r="S11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>26</v>
+      <c r="T11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7">
         <v>17.9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>260.8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>3.0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>4.8</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="11">
         <v>54.9</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="11">
         <v>25.0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <v>15.2</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>33.0</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="R12" s="9">
         <v>35.0</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>26</v>
+      <c r="T12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7">
         <v>17.9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>260.8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>4.0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="11">
         <v>321.3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="11">
         <v>56.1</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="11">
         <v>66.8</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="9">
         <v>15.2</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="9">
         <v>33.0</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="R13" s="9">
         <v>35.0</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>26</v>
+      <c r="T13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="7">
         <v>17.9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>260.8</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>3.0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="11">
         <v>343.1</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="11">
         <v>60.0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11">
         <v>544.9</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="9">
         <v>5.3</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="9">
         <v>33.0</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="R14" s="9">
         <v>35.0</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>26</v>
+      <c r="T14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7">
         <v>17.9</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>260.8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>3.0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="11">
         <v>329.1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9">
         <v>56.0</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="11">
         <v>37.9</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="9">
         <v>20.3</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="9">
         <v>33.0</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="R15" s="9">
         <v>35.0</v>
       </c>
-      <c r="S15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>26</v>
+      <c r="T15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="7">
         <v>17.9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>260.8</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>3.0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="11">
         <v>180.4</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9">
         <v>-40.8</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="9">
         <v>14.2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="9">
         <v>14.0</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="9">
         <v>33.0</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="R16" s="9">
         <v>35.0</v>
       </c>
-      <c r="S16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>26</v>
+      <c r="T16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="7">
         <v>17.9</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>260.8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>3.0</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="9">
         <v>193.1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <v>-46.4</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9">
         <v>19.2</v>
       </c>
       <c r="H17" s="9">
         <v>19.2</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="9">
         <v>33.0</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="R17" s="9">
         <v>35.0</v>
       </c>
-      <c r="S17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>26</v>
+      <c r="T17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="7">
         <v>17.9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>260.8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>5.0</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="9">
         <v>183.9</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="9">
         <v>-27.7</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="9">
         <v>11.1</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="9">
         <v>11.1</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="9">
         <v>33.0</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="R18" s="9">
         <v>35.0</v>
       </c>
-      <c r="S18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>26</v>
+      <c r="T18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="7">
         <v>17.9</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>260.8</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>4.0</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="9">
         <v>0.0</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="9">
         <v>31.9</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="9">
         <v>11.8</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="9">
         <v>11.8</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="9">
         <v>33.0</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="R19" s="9">
         <v>35.0</v>
       </c>
-      <c r="S19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>26</v>
+      <c r="T19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="B20" s="7">
         <v>17.9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>260.8</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>4.0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="9">
         <v>358.7</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="9">
         <v>25.1</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <v>8.4</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9">
         <v>8.4</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="9">
         <v>33.0</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="R20" s="9">
         <v>35.0</v>
       </c>
-      <c r="S20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
+      <c r="T20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="7">
         <v>17.9</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>260.8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>4.0</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="9">
         <v>358.0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="9">
         <v>34.5</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="9">
         <v>28.6</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="9">
         <v>28.6</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="9">
         <v>33.0</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="9">
         <v>35.0</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>26</v>
+      <c r="T21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="7">
         <v>17.9</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>260.8</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>7.0</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="9">
         <v>175.2</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="9">
         <v>-36.7</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="9">
         <v>38.9</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="9">
         <v>13.7</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="9">
         <v>33.0</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="R22" s="9">
         <v>35.0</v>
       </c>
-      <c r="S22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>26</v>
+      <c r="T22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="7">
         <v>17.9</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>260.8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>5.0</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="9">
         <v>160.0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="9">
         <v>-32.2</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="9">
         <v>34.5</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="9">
         <v>15.0</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="9">
         <v>33.0</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="R23" s="9">
         <v>35.0</v>
       </c>
-      <c r="S23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>26</v>
+      <c r="T23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7">
         <v>17.9</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>260.8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <v>7.0</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="9">
         <v>178.3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="9">
         <v>-29.4</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="9">
         <v>43.6</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="9">
         <v>12.8</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="9">
         <v>33.0</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9">
         <v>31.0</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="R24" s="9">
         <v>35.0</v>
       </c>
-      <c r="S24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>26</v>
+      <c r="T24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="8"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="8"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="8"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>

--- a/data/VGPs_NAM/25.xlsx
+++ b/data/VGPs_NAM/25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>Study level data</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>bal1</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>bal6</t>
@@ -249,7 +252,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +271,12 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -281,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -316,6 +325,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -534,7 +546,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="32" width="9.38"/>
+    <col customWidth="1" min="1" max="21" width="9.38"/>
+    <col customWidth="1" min="22" max="22" width="11.5"/>
+    <col customWidth="1" min="23" max="32" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -633,6 +647,12 @@
       </c>
       <c r="D3" s="8">
         <v>9.0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>351.3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>39.9</v>
       </c>
       <c r="G3" s="9">
         <v>70.4</v>
@@ -800,6 +820,9 @@
       <c r="T7" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V7" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="W7" s="7" t="s">
         <v>28</v>
       </c>
@@ -846,6 +869,9 @@
       <c r="T8" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V8" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="W8" s="7" t="s">
         <v>28</v>
       </c>
@@ -891,6 +917,9 @@
       <c r="T9" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="W9" s="7" t="s">
         <v>28</v>
       </c>
@@ -936,6 +965,9 @@
       <c r="T10" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V10" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="W10" s="7" t="s">
         <v>28</v>
       </c>
@@ -981,6 +1013,9 @@
       <c r="T11" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="W11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +1045,7 @@
       <c r="G12" s="11">
         <v>25.0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="13">
         <v>15.2</v>
       </c>
       <c r="O12" s="9">
@@ -1025,6 +1060,9 @@
       </c>
       <c r="T12" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>28</v>
@@ -1055,7 +1093,7 @@
       <c r="G13" s="11">
         <v>66.8</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="13">
         <v>15.2</v>
       </c>
       <c r="O13" s="9">
@@ -1070,6 +1108,9 @@
       </c>
       <c r="T13" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>28</v>
@@ -1116,6 +1157,9 @@
       <c r="T14" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V14" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="W14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1161,6 +1205,9 @@
       <c r="T15" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V15" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="W15" s="7" t="s">
         <v>28</v>
       </c>
@@ -1206,6 +1253,9 @@
       <c r="T16" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V16" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1215,7 +1265,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="7">
         <v>17.9</v>
@@ -1232,10 +1282,10 @@
       <c r="F17" s="9">
         <v>-46.4</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="13">
         <v>19.2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="13">
         <v>19.2</v>
       </c>
       <c r="O17" s="9">
@@ -1251,6 +1301,9 @@
       <c r="T17" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V17" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W17" s="7" t="s">
         <v>28</v>
       </c>
@@ -1260,7 +1313,7 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="7">
         <v>17.9</v>
@@ -1277,10 +1330,10 @@
       <c r="F18" s="9">
         <v>-27.7</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="13">
         <v>11.1</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="13">
         <v>11.1</v>
       </c>
       <c r="O18" s="9">
@@ -1296,6 +1349,9 @@
       <c r="T18" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V18" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1305,7 +1361,7 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="7">
         <v>17.9</v>
@@ -1322,10 +1378,10 @@
       <c r="F19" s="9">
         <v>31.9</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="13">
         <v>11.8</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="13">
         <v>11.8</v>
       </c>
       <c r="O19" s="9">
@@ -1341,6 +1397,9 @@
       <c r="T19" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V19" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1350,7 +1409,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="7">
         <v>17.9</v>
@@ -1367,10 +1426,10 @@
       <c r="F20" s="9">
         <v>25.1</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="13">
         <v>8.4</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="13">
         <v>8.4</v>
       </c>
       <c r="O20" s="9">
@@ -1386,6 +1445,9 @@
       <c r="T20" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V20" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W20" s="7" t="s">
         <v>28</v>
       </c>
@@ -1393,15 +1455,15 @@
         <v>28</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="7">
         <v>17.9</v>
@@ -1418,10 +1480,10 @@
       <c r="F21" s="9">
         <v>34.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="13">
         <v>28.6</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="13">
         <v>28.6</v>
       </c>
       <c r="O21" s="9">
@@ -1437,6 +1499,9 @@
       <c r="T21" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V21" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1446,7 +1511,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="7">
         <v>17.9</v>
@@ -1482,6 +1547,9 @@
       <c r="T22" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V22" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W22" s="7" t="s">
         <v>28</v>
       </c>
@@ -1491,7 +1559,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="7">
         <v>17.9</v>
@@ -1527,6 +1595,9 @@
       <c r="T23" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="V23" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="W23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1536,7 +1607,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="7">
         <v>17.9</v>
@@ -1571,6 +1642,9 @@
       </c>
       <c r="T24" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="W24" s="7" t="s">
         <v>28</v>
